--- a/VK.xlsx
+++ b/VK.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\shut-synology1\Учеба\Тестировщик\Урок5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Документы\MyFirst_Repo\MyFirst_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="145">
   <si>
     <t>passed</t>
   </si>
@@ -1752,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1847,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="8">
         <f>COUNTIF(N$29:N$49,"passed")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="8">
@@ -2071,7 +2071,9 @@
         <v>0</v>
       </c>
       <c r="M8" s="16"/>
-      <c r="N8" s="15"/>
+      <c r="N8" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O8" s="16"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="16"/>
@@ -2109,7 +2111,9 @@
         <v>0</v>
       </c>
       <c r="M9" s="16"/>
-      <c r="N9" s="15"/>
+      <c r="N9" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O9" s="16"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="16"/>
@@ -2147,7 +2151,9 @@
         <v>0</v>
       </c>
       <c r="M10" s="16"/>
-      <c r="N10" s="15"/>
+      <c r="N10" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O10" s="16"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="16"/>
@@ -2185,7 +2191,9 @@
         <v>0</v>
       </c>
       <c r="M11" s="16"/>
-      <c r="N11" s="15"/>
+      <c r="N11" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O11" s="16"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="16"/>
@@ -2223,7 +2231,9 @@
         <v>0</v>
       </c>
       <c r="M12" s="16"/>
-      <c r="N12" s="15"/>
+      <c r="N12" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O12" s="16"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="16"/>
@@ -2261,7 +2271,9 @@
         <v>0</v>
       </c>
       <c r="M13" s="16"/>
-      <c r="N13" s="15"/>
+      <c r="N13" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O13" s="16"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="16"/>
@@ -2299,7 +2311,9 @@
         <v>0</v>
       </c>
       <c r="M14" s="16"/>
-      <c r="N14" s="15"/>
+      <c r="N14" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O14" s="16"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="16"/>
@@ -2337,7 +2351,9 @@
         <v>0</v>
       </c>
       <c r="M15" s="16"/>
-      <c r="N15" s="15"/>
+      <c r="N15" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O15" s="16"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="16"/>
@@ -2375,7 +2391,9 @@
         <v>0</v>
       </c>
       <c r="M16" s="16"/>
-      <c r="N16" s="15"/>
+      <c r="N16" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O16" s="16"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="16"/>
@@ -2413,7 +2431,9 @@
         <v>0</v>
       </c>
       <c r="M17" s="16"/>
-      <c r="N17" s="15"/>
+      <c r="N17" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O17" s="16"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="16"/>
@@ -2451,7 +2471,9 @@
         <v>0</v>
       </c>
       <c r="M18" s="16"/>
-      <c r="N18" s="15"/>
+      <c r="N18" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O18" s="16"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="16"/>
@@ -2489,7 +2511,9 @@
         <v>0</v>
       </c>
       <c r="M19" s="16"/>
-      <c r="N19" s="15"/>
+      <c r="N19" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="O19" s="16"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="16"/>
@@ -2527,7 +2551,9 @@
         <v>0</v>
       </c>
       <c r="M20" s="16"/>
-      <c r="N20" s="15"/>
+      <c r="N20" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O20" s="16"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="16"/>
@@ -2565,7 +2591,9 @@
         <v>0</v>
       </c>
       <c r="M21" s="16"/>
-      <c r="N21" s="15"/>
+      <c r="N21" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O21" s="16"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="16"/>
@@ -2603,7 +2631,9 @@
         <v>0</v>
       </c>
       <c r="M22" s="16"/>
-      <c r="N22" s="15"/>
+      <c r="N22" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O22" s="16"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="16"/>
@@ -2641,7 +2671,9 @@
         <v>0</v>
       </c>
       <c r="M23" s="16"/>
-      <c r="N23" s="15"/>
+      <c r="N23" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O23" s="16"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="16"/>
@@ -2679,7 +2711,9 @@
         <v>0</v>
       </c>
       <c r="M24" s="16"/>
-      <c r="N24" s="15"/>
+      <c r="N24" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O24" s="16"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="16"/>
@@ -2717,7 +2751,9 @@
         <v>0</v>
       </c>
       <c r="M25" s="16"/>
-      <c r="N25" s="15"/>
+      <c r="N25" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O25" s="16"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="16"/>
@@ -2755,7 +2791,9 @@
         <v>0</v>
       </c>
       <c r="M26" s="16"/>
-      <c r="N26" s="15"/>
+      <c r="N26" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O26" s="16"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="16"/>
@@ -2793,7 +2831,9 @@
         <v>0</v>
       </c>
       <c r="M27" s="16"/>
-      <c r="N27" s="15"/>
+      <c r="N27" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O27" s="16"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="16"/>
@@ -2831,7 +2871,9 @@
         <v>0</v>
       </c>
       <c r="M28" s="16"/>
-      <c r="N28" s="15"/>
+      <c r="N28" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O28" s="16"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="16"/>
@@ -2869,7 +2911,9 @@
         <v>0</v>
       </c>
       <c r="M29" s="16"/>
-      <c r="N29" s="15"/>
+      <c r="N29" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O29" s="16"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="16"/>
@@ -2907,7 +2951,9 @@
         <v>0</v>
       </c>
       <c r="M30" s="16"/>
-      <c r="N30" s="15"/>
+      <c r="N30" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O30" s="16"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="16"/>
@@ -2945,7 +2991,9 @@
         <v>0</v>
       </c>
       <c r="M31" s="16"/>
-      <c r="N31" s="15"/>
+      <c r="N31" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O31" s="16"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="16"/>
@@ -2983,7 +3031,9 @@
         <v>0</v>
       </c>
       <c r="M32" s="16"/>
-      <c r="N32" s="15"/>
+      <c r="N32" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O32" s="16"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="16"/>
@@ -3021,7 +3071,9 @@
         <v>0</v>
       </c>
       <c r="M33" s="16"/>
-      <c r="N33" s="15"/>
+      <c r="N33" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O33" s="16"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="16"/>
@@ -3059,7 +3111,9 @@
         <v>0</v>
       </c>
       <c r="M34" s="16"/>
-      <c r="N34" s="15"/>
+      <c r="N34" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O34" s="16"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="16"/>
@@ -3097,7 +3151,9 @@
         <v>0</v>
       </c>
       <c r="M35" s="16"/>
-      <c r="N35" s="15"/>
+      <c r="N35" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O35" s="16"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="16"/>
@@ -3135,7 +3191,9 @@
         <v>0</v>
       </c>
       <c r="M36" s="16"/>
-      <c r="N36" s="15"/>
+      <c r="N36" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O36" s="16"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="16"/>
@@ -3173,7 +3231,9 @@
         <v>0</v>
       </c>
       <c r="M37" s="16"/>
-      <c r="N37" s="15"/>
+      <c r="N37" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="O37" s="16"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="16"/>
@@ -4116,7 +4176,7 @@
     <mergeCell ref="G6:G7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T49 R8:R49 P8:P49 N8:N49 L8:L49">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T49 R8:R49 P8:P49 L8:L49 N8:N49">
       <formula1>Result</formula1>
       <formula2>0</formula2>
     </dataValidation>
